--- a/Daily Work/4주차 (2023.03.31)/5조_간트차트.xlsx
+++ b/Daily Work/4주차 (2023.03.31)/5조_간트차트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Desktop\Capstone\CapstoneDesign\Daily Work\4주차 (2023.03.31)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E1ADB-3D4A-4933-A388-B1714AEE11B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>프로젝트 조원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,9 +108,6 @@
     <t>프로필 기능 개발</t>
   </si>
   <si>
-    <t>블로그 기능 구현</t>
-  </si>
-  <si>
     <t>5조 간트차트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,9 +150,6 @@
     <t xml:space="preserve">프로필 UI </t>
   </si>
   <si>
-    <t>블로그 기능 구상</t>
-  </si>
-  <si>
     <t>블로그 테스트</t>
   </si>
   <si>
@@ -296,13 +291,21 @@
   </si>
   <si>
     <t>나윤재, 박용호, 우주은, 임영훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박용호,임영훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박용호,임영훈 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,123 +457,120 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,41 +859,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="32" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="32" width="4.3984375" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:34" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -916,25 +916,25 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -957,26 +957,26 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -998,166 +998,166 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="26" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="29" t="s">
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AH4" s="21"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="24"/>
+    </row>
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AH4" s="31"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH5" s="34"/>
-    </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="38">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1187,18 +1187,18 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-      <c r="AH6" s="35"/>
-    </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="AH6" s="25"/>
+    </row>
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1228,18 +1228,18 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-      <c r="AH7" s="37"/>
-    </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="AH7" s="27"/>
+    </row>
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1269,18 +1269,18 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AH8" s="36"/>
-    </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="AH8" s="26"/>
+    </row>
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="38">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1310,20 +1310,20 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
-      <c r="AH9" s="32"/>
-    </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>55</v>
+      <c r="AH9" s="22"/>
+    </row>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1353,18 +1353,18 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AH10" s="33"/>
-    </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="AH10" s="23"/>
+    </row>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1395,16 +1395,16 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1435,16 +1435,16 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="38">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1475,16 +1475,16 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1515,16 +1515,16 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1555,16 +1555,16 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29"/>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1595,16 +1595,16 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.5</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1635,16 +1635,16 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="29"/>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.5</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1675,16 +1675,16 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.5</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1715,16 +1715,16 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.5</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1755,16 +1755,16 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="38">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0.5</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1795,18 +1795,18 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>56</v>
+    <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="38">
-        <v>0</v>
+      <c r="D22" s="28">
+        <v>1</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1837,16 +1837,16 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="38">
-        <v>0</v>
+      <c r="D23" s="28">
+        <v>1</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1877,16 +1877,16 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="29"/>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="38">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D24" s="28">
+        <v>1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1917,15 +1917,13 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="29"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="38">
+        <v>59</v>
+      </c>
+      <c r="D25" s="28">
         <v>0</v>
       </c>
       <c r="E25" s="3"/>
@@ -1957,15 +1955,13 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="29"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="38">
+        <v>59</v>
+      </c>
+      <c r="D26" s="28">
         <v>0</v>
       </c>
       <c r="E26" s="3"/>
@@ -1997,16 +1993,16 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="29"/>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="38">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2037,16 +2033,16 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="29"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="38">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2077,16 +2073,16 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="29"/>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="38">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2117,15 +2113,15 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+    <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="29"/>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="38">
+        <v>75</v>
+      </c>
+      <c r="D30" s="28">
         <v>0</v>
       </c>
       <c r="E30" s="3"/>
@@ -2157,16 +2153,16 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+    <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="29"/>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="38">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0.3</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2197,15 +2193,15 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="29"/>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="38">
+        <v>61</v>
+      </c>
+      <c r="D32" s="28">
         <v>0</v>
       </c>
       <c r="E32" s="3"/>
@@ -2237,15 +2233,15 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29"/>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="38">
+        <v>61</v>
+      </c>
+      <c r="D33" s="28">
         <v>0</v>
       </c>
       <c r="E33" s="3"/>
@@ -2277,15 +2273,15 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="29"/>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="38">
+        <v>61</v>
+      </c>
+      <c r="D34" s="28">
         <v>0</v>
       </c>
       <c r="E34" s="3"/>
@@ -2317,15 +2313,15 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="29"/>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="38">
+        <v>61</v>
+      </c>
+      <c r="D35" s="28">
         <v>0</v>
       </c>
       <c r="E35" s="3"/>
@@ -2357,15 +2353,15 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="29"/>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="38">
+        <v>61</v>
+      </c>
+      <c r="D36" s="28">
         <v>0</v>
       </c>
       <c r="E36" s="3"/>
@@ -2397,15 +2393,15 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="29"/>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="38">
+        <v>61</v>
+      </c>
+      <c r="D37" s="28">
         <v>0</v>
       </c>
       <c r="E37" s="3"/>
@@ -2437,17 +2433,17 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>57</v>
+    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="38">
+        <v>59</v>
+      </c>
+      <c r="D38" s="28">
         <v>0</v>
       </c>
       <c r="E38" s="3"/>
@@ -2479,15 +2475,15 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="29"/>
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="38">
+        <v>59</v>
+      </c>
+      <c r="D39" s="28">
         <v>0</v>
       </c>
       <c r="E39" s="3"/>
@@ -2519,15 +2515,15 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="29"/>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="38">
+        <v>60</v>
+      </c>
+      <c r="D40" s="28">
         <v>0</v>
       </c>
       <c r="E40" s="3"/>
@@ -2559,15 +2555,15 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="29"/>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="38">
+        <v>60</v>
+      </c>
+      <c r="D41" s="28">
         <v>0</v>
       </c>
       <c r="E41" s="3"/>
@@ -2599,15 +2595,15 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="29"/>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="38">
+        <v>61</v>
+      </c>
+      <c r="D42" s="28">
         <v>0</v>
       </c>
       <c r="E42" s="3"/>
@@ -2639,15 +2635,15 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="29"/>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="38">
+        <v>61</v>
+      </c>
+      <c r="D43" s="28">
         <v>0</v>
       </c>
       <c r="E43" s="3"/>
@@ -2679,15 +2675,15 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="29"/>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="38">
+        <v>61</v>
+      </c>
+      <c r="D44" s="28">
         <v>0</v>
       </c>
       <c r="E44" s="3"/>
@@ -2719,15 +2715,15 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="29"/>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="38">
+        <v>61</v>
+      </c>
+      <c r="D45" s="28">
         <v>0</v>
       </c>
       <c r="E45" s="3"/>
@@ -2761,13 +2757,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="U4:X4"/>
@@ -2777,6 +2766,13 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
